--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manik\Downloads\Local_RAG_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CE5BF-2617-4398-B815-EBC3E59911B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F5609-A275-486C-80A6-46EE68BA5D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Keyword</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>langchain</t>
-  </si>
-  <si>
-    <t>langgraph</t>
   </si>
 </sst>
 </file>
@@ -397,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,14 +430,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
